--- a/GROUP5 SPRINT/GROUP 5 FWM/FWM/RTM/RTM (2) (1).xlsx
+++ b/GROUP5 SPRINT/GROUP 5 FWM/FWM/RTM/RTM (2) (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAJSHIRI\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7478203-367A-4A8E-9FD4-1561B9C0980C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D01DF47-69E2-43B6-8F59-027AED8A2D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>Req</t>
   </si>
@@ -206,18 +206,37 @@
   </si>
   <si>
     <t>IT_05</t>
+  </si>
+  <si>
+    <t>Admin_Max Request_Report()</t>
+  </si>
+  <si>
+    <t>IT_11</t>
+  </si>
+  <si>
+    <t>IT_12</t>
+  </si>
+  <si>
+    <t>IT_13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,14 +292,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -561,7 +581,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -766,8 +786,11 @@
       <c r="B13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
+      <c r="C13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -780,6 +803,9 @@
       <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="E14" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
@@ -790,6 +816,9 @@
       </c>
       <c r="C15" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -813,6 +842,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="c3d86725-8b3e-4d29-b1bb-4693ad18f08d" xsi:nil="true"/>
@@ -821,15 +859,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1050,20 +1079,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD5ECF-BDC1-47FC-86F7-8061971B0019}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE18EF17-2054-47D8-BF86-187761025201}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c3d86725-8b3e-4d29-b1bb-4693ad18f08d"/>
     <ds:schemaRef ds:uri="18423733-67d9-4f0c-86d9-ba9fd8af3664"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD5ECF-BDC1-47FC-86F7-8061971B0019}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GROUP5 SPRINT/GROUP 5 FWM/FWM/RTM/RTM (2) (1).xlsx
+++ b/GROUP5 SPRINT/GROUP 5 FWM/FWM/RTM/RTM (2) (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAJSHIRI\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D01DF47-69E2-43B6-8F59-027AED8A2D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CEA457-49D5-4439-8F3F-2AEBA76EB20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Req</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>IT_05</t>
-  </si>
-  <si>
-    <t>Admin_Max Request_Report()</t>
   </si>
   <si>
     <t>IT_11</t>
@@ -224,12 +221,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,14 +296,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -581,7 +586,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -786,11 +791,11 @@
       <c r="B13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,7 +809,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,7 +823,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -842,26 +847,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c3d86725-8b3e-4d29-b1bb-4693ad18f08d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18423733-67d9-4f0c-86d9-ba9fd8af3664">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E092000DCB123B4CADB3A306A70C54D2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9714de2ff10917eb782fe6f1b4cf2ed3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="18423733-67d9-4f0c-86d9-ba9fd8af3664" xmlns:ns3="c3d86725-8b3e-4d29-b1bb-4693ad18f08d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d115b678c57400066c4fe93e52ffce69" ns2:_="" ns3:_="">
     <xsd:import namespace="18423733-67d9-4f0c-86d9-ba9fd8af3664"/>
@@ -1078,10 +1063,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c3d86725-8b3e-4d29-b1bb-4693ad18f08d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18423733-67d9-4f0c-86d9-ba9fd8af3664">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD5ECF-BDC1-47FC-86F7-8061971B0019}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A710F3-DFED-4422-89E0-BCC601F21305}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="18423733-67d9-4f0c-86d9-ba9fd8af3664"/>
+    <ds:schemaRef ds:uri="c3d86725-8b3e-4d29-b1bb-4693ad18f08d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1098,20 +1114,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A710F3-DFED-4422-89E0-BCC601F21305}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD5ECF-BDC1-47FC-86F7-8061971B0019}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="18423733-67d9-4f0c-86d9-ba9fd8af3664"/>
-    <ds:schemaRef ds:uri="c3d86725-8b3e-4d29-b1bb-4693ad18f08d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>